--- a/tests/regression_data/kofskey1972a_moustapha_2.xlsx
+++ b/tests/regression_data/kofskey1972a_moustapha_2.xlsx
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.50683001206572</v>
+        <v>81.50683000619343</v>
       </c>
       <c r="D2" t="n">
-        <v>81.50683001206572</v>
+        <v>81.50683000619343</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>81.50683001206572</v>
+        <v>81.50683000619343</v>
       </c>
       <c r="H2" t="n">
-        <v>81.50683001206572</v>
+        <v>81.50683000619343</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -767,40 +767,40 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>132670.2205776931</v>
+        <v>132670.2205784502</v>
       </c>
       <c r="L2" t="n">
-        <v>292.288029256684</v>
+        <v>292.2880292571613</v>
       </c>
       <c r="M2" t="n">
-        <v>418462.749419282</v>
+        <v>418462.7494197606</v>
       </c>
       <c r="N2" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="O2" t="n">
-        <v>1.582065549002304</v>
+        <v>1.582065549008744</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9994975148078921</v>
+        <v>0.9994975148078954</v>
       </c>
       <c r="Q2" t="n">
-        <v>342.8703951980576</v>
+        <v>342.8703951983379</v>
       </c>
       <c r="R2" t="n">
-        <v>1.816825737526819e-05</v>
+        <v>1.816825737529155e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02581945034906096</v>
+        <v>0.02581945034909694</v>
       </c>
       <c r="T2" t="n">
-        <v>1006.644280094861</v>
+        <v>1006.644280094886</v>
       </c>
       <c r="U2" t="n">
-        <v>717.7099942396011</v>
+        <v>717.7099942396228</v>
       </c>
       <c r="V2" t="n">
-        <v>1.402578044299606</v>
+        <v>1.402578044299598</v>
       </c>
       <c r="W2" t="n">
         <v>137999.9999977021</v>
@@ -883,16 +883,16 @@
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>0.2377190657273973</v>
+        <v>0.2377190657100761</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.2377190657273973</v>
+        <v>0.2377190657100761</v>
       </c>
       <c r="BE2" t="n">
-        <v>185670.5151187271</v>
+        <v>185670.5151058672</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.768336761246228</v>
+        <v>2.768336761058048</v>
       </c>
       <c r="BG2" t="n">
         <v>421784.4310884894</v>
@@ -907,136 +907,136 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>262.1714205592875</v>
+        <v>262.1714204988557</v>
       </c>
       <c r="D3" t="n">
-        <v>110.7984300348559</v>
+        <v>110.7984300093164</v>
       </c>
       <c r="E3" t="n">
-        <v>237.6079999913427</v>
+        <v>237.6079999365729</v>
       </c>
       <c r="F3" t="n">
         <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>262.1714205592875</v>
+        <v>262.1714204988557</v>
       </c>
       <c r="H3" t="n">
-        <v>110.7984300348559</v>
+        <v>110.7984300093164</v>
       </c>
       <c r="I3" t="n">
-        <v>237.6079999913427</v>
+        <v>237.6079999365729</v>
       </c>
       <c r="J3" t="n">
         <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>87236.9403156468</v>
+        <v>87236.94033709716</v>
       </c>
       <c r="L3" t="n">
-        <v>261.304743462123</v>
+        <v>261.3047434778477</v>
       </c>
       <c r="M3" t="n">
-        <v>387417.5042095522</v>
+        <v>387417.5042252954</v>
       </c>
       <c r="N3" t="n">
-        <v>3790.912932100971</v>
+        <v>3790.912932090685</v>
       </c>
       <c r="O3" t="n">
-        <v>1.163817463179117</v>
+        <v>1.163817463395193</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9993371487438103</v>
+        <v>0.999337148743857</v>
       </c>
       <c r="Q3" t="n">
-        <v>324.1664804467952</v>
+        <v>324.1664804565621</v>
       </c>
       <c r="R3" t="n">
-        <v>1.66175584796911e-05</v>
+        <v>1.66175584804964e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02344249906718869</v>
+        <v>0.02344249906841714</v>
       </c>
       <c r="T3" t="n">
-        <v>1005.248554156857</v>
+        <v>1005.24855415747</v>
       </c>
       <c r="U3" t="n">
-        <v>716.5821581613998</v>
+        <v>716.5821581618462</v>
       </c>
       <c r="V3" t="n">
-        <v>1.402837822164195</v>
+        <v>1.402837822164176</v>
       </c>
       <c r="W3" t="n">
-        <v>134207.3655566197</v>
+        <v>134207.3655580823</v>
       </c>
       <c r="X3" t="n">
-        <v>295.5912063165021</v>
+        <v>295.5912063165055</v>
       </c>
       <c r="Y3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.431088389</v>
       </c>
       <c r="Z3" t="n">
-        <v>3790.912932099036</v>
+        <v>3790.912932095909</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.582453844667982</v>
+        <v>1.582453844685217</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9995339724090944</v>
+        <v>0.9995339724090894</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.8002033621439</v>
+        <v>344.8002033621474</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.832897806198475e-05</v>
+        <v>1.832897806198512e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02606676231340337</v>
+        <v>0.02606676231340408</v>
       </c>
       <c r="AF3" t="n">
-        <v>1006.759312872582</v>
+        <v>1006.759312872606</v>
       </c>
       <c r="AG3" t="n">
-        <v>717.8533576853846</v>
+        <v>717.8533576853885</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.402458179089296</v>
+        <v>1.402458179089322</v>
       </c>
       <c r="AI3" t="n">
-        <v>134207.3655566197</v>
+        <v>134207.3655580823</v>
       </c>
       <c r="AJ3" t="n">
-        <v>295.5912063165021</v>
+        <v>295.5912063165055</v>
       </c>
       <c r="AK3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.431088389</v>
       </c>
       <c r="AL3" t="n">
-        <v>3790.912932099036</v>
+        <v>3790.912932095909</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582453844667982</v>
+        <v>1.582453844685217</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.9995339724090944</v>
+        <v>0.9995339724090894</v>
       </c>
       <c r="AO3" t="n">
-        <v>344.8002033621439</v>
+        <v>344.8002033621474</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.832897806198475e-05</v>
+        <v>1.832897806198512e-05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.02606676231340337</v>
+        <v>0.02606676231340408</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.759312872582</v>
+        <v>1006.759312872606</v>
       </c>
       <c r="AS3" t="n">
-        <v>717.8533576853846</v>
+        <v>717.8533576853885</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.402458179089296</v>
+        <v>1.402458179089322</v>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="AV3" t="n">
-        <v>-3.348835098115899e-12</v>
+        <v>-6.084022174945858e-14</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.08074515872024421</v>
+        <v>0.08074515872017807</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.01698214838050962</v>
+        <v>0.01698214838047463</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.04899632398415284</v>
+        <v>0.04899632398412169</v>
       </c>
       <c r="BA3" t="n">
         <v>0.01476668635558176</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8087554894569587</v>
+        <v>0.8087554892461694</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.8087554894569587</v>
+        <v>0.8087554892461694</v>
       </c>
       <c r="BE3" t="n">
-        <v>480331.1374289847</v>
+        <v>480331.1373841681</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.768336761180078</v>
+        <v>2.768336761055938</v>
       </c>
       <c r="BG3" t="n">
         <v>421784.4310884894</v>
@@ -1091,136 +1091,136 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>248.9955344090438</v>
+        <v>248.9955344363137</v>
       </c>
       <c r="D4" t="n">
-        <v>107.0567091778456</v>
+        <v>107.056709178166</v>
       </c>
       <c r="E4" t="n">
-        <v>224.8057765620258</v>
+        <v>224.8057765920775</v>
       </c>
       <c r="F4" t="n">
-        <v>64.5353378981428</v>
+        <v>64.53533790104945</v>
       </c>
       <c r="G4" t="n">
-        <v>248.9955344090438</v>
+        <v>248.9955344363137</v>
       </c>
       <c r="H4" t="n">
-        <v>107.0567091778456</v>
+        <v>107.056709178166</v>
       </c>
       <c r="I4" t="n">
-        <v>224.8057765620258</v>
+        <v>224.8057765920775</v>
       </c>
       <c r="J4" t="n">
-        <v>64.53533789814281</v>
+        <v>64.53533790104945</v>
       </c>
       <c r="K4" t="n">
-        <v>91448.88615515789</v>
+        <v>91448.8861462128</v>
       </c>
       <c r="L4" t="n">
-        <v>264.6668567791837</v>
+        <v>264.6668567722047</v>
       </c>
       <c r="M4" t="n">
-        <v>390785.043010767</v>
+        <v>390785.0430037765</v>
       </c>
       <c r="N4" t="n">
-        <v>3790.191971962992</v>
+        <v>3790.19197196464</v>
       </c>
       <c r="O4" t="n">
-        <v>1.204493849668743</v>
+        <v>1.204493849582722</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9993509822180906</v>
+        <v>0.9993509822180613</v>
       </c>
       <c r="Q4" t="n">
-        <v>326.2479420053282</v>
+        <v>326.2479420010213</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67892377246488e-05</v>
+        <v>1.678923772429332e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02370447418925198</v>
+        <v>0.02370447418870923</v>
       </c>
       <c r="T4" t="n">
-        <v>1005.372589020765</v>
+        <v>1005.3725890205</v>
       </c>
       <c r="U4" t="n">
-        <v>716.6788816640727</v>
+        <v>716.6788816638659</v>
       </c>
       <c r="V4" t="n">
-        <v>1.402821563105596</v>
+        <v>1.402821563105631</v>
       </c>
       <c r="W4" t="n">
-        <v>134545.0257168427</v>
+        <v>134545.0257160698</v>
       </c>
       <c r="X4" t="n">
-        <v>295.5919892935091</v>
+        <v>295.5919892935072</v>
       </c>
       <c r="Y4" t="n">
         <v>421784.4310885895</v>
       </c>
       <c r="Z4" t="n">
-        <v>3790.19197196821</v>
+        <v>3790.191971969857</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.586432855313815</v>
+        <v>1.586432855304707</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9995328227633419</v>
+        <v>0.9995328227633445</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.8010060767697</v>
+        <v>344.8010060767677</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.832906474331119e-05</v>
+        <v>1.832906474331098e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02606692894987186</v>
+        <v>0.02606692894987147</v>
       </c>
       <c r="AF4" t="n">
-        <v>1006.764857018934</v>
+        <v>1006.764857018921</v>
       </c>
       <c r="AG4" t="n">
-        <v>717.8542372228757</v>
+        <v>717.8542372228737</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.402464183973826</v>
+        <v>1.402464183973812</v>
       </c>
       <c r="AI4" t="n">
-        <v>134545.0257168427</v>
+        <v>134545.0257160698</v>
       </c>
       <c r="AJ4" t="n">
-        <v>295.5919892935091</v>
+        <v>295.5919892935072</v>
       </c>
       <c r="AK4" t="n">
         <v>421784.4310885895</v>
       </c>
       <c r="AL4" t="n">
-        <v>3790.19197196821</v>
+        <v>3790.191971969857</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.586432855313815</v>
+        <v>1.586432855304707</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.9995328227633419</v>
+        <v>0.9995328227633445</v>
       </c>
       <c r="AO4" t="n">
-        <v>344.8010060767697</v>
+        <v>344.8010060767677</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.832906474331119e-05</v>
+        <v>1.832906474331098e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.02606692894987186</v>
+        <v>0.02606692894987147</v>
       </c>
       <c r="AR4" t="n">
-        <v>1006.764857018934</v>
+        <v>1006.764857018921</v>
       </c>
       <c r="AS4" t="n">
-        <v>717.8542372228757</v>
+        <v>717.8542372228737</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.402464183973826</v>
+        <v>1.402464183973812</v>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
@@ -1228,19 +1228,19 @@
         </is>
       </c>
       <c r="AV4" t="n">
-        <v>2.126354647913331e-13</v>
+        <v>-6.360328930199444e-13</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.08016899694472626</v>
+        <v>0.08016899694830731</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01652427982057137</v>
+        <v>0.01652427982340004</v>
       </c>
       <c r="AY4" t="n">
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.04887803076857315</v>
+        <v>0.04887803076932553</v>
       </c>
       <c r="BA4" t="n">
         <v>0.01476668635558176</v>
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.763209517517745</v>
+        <v>0.7632095176114069</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.763209517517745</v>
+        <v>0.7632095176114069</v>
       </c>
       <c r="BE4" t="n">
-        <v>467307.6668278684</v>
+        <v>467307.6668555686</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.768336761246533</v>
+        <v>2.768336761057109</v>
       </c>
       <c r="BG4" t="n">
         <v>421784.4310884894</v>
@@ -1275,136 +1275,136 @@
         <v>165.3032</v>
       </c>
       <c r="C5" t="n">
-        <v>248.9955344090438</v>
+        <v>248.9955344363137</v>
       </c>
       <c r="D5" t="n">
-        <v>107.0567091778456</v>
+        <v>107.056709178166</v>
       </c>
       <c r="E5" t="n">
-        <v>224.8057765620258</v>
+        <v>224.8057765920775</v>
       </c>
       <c r="F5" t="n">
-        <v>64.5353378981428</v>
+        <v>64.53533790104945</v>
       </c>
       <c r="G5" t="n">
-        <v>122.4814091913935</v>
+        <v>122.4814092062728</v>
       </c>
       <c r="H5" t="n">
-        <v>107.0567091778456</v>
+        <v>107.056709178166</v>
       </c>
       <c r="I5" t="n">
-        <v>59.50257656202584</v>
+        <v>59.50257659207753</v>
       </c>
       <c r="J5" t="n">
-        <v>29.06549251199102</v>
+        <v>29.06549252420578</v>
       </c>
       <c r="K5" t="n">
-        <v>91448.8861550366</v>
+        <v>91448.88614396313</v>
       </c>
       <c r="L5" t="n">
-        <v>264.6668567790834</v>
+        <v>264.6668567723038</v>
       </c>
       <c r="M5" t="n">
-        <v>390785.0430106664</v>
+        <v>390785.0430038827</v>
       </c>
       <c r="N5" t="n">
-        <v>3790.191971962993</v>
+        <v>3790.191971972098</v>
       </c>
       <c r="O5" t="n">
-        <v>1.204493849667603</v>
+        <v>1.204493849552619</v>
       </c>
       <c r="P5" t="n">
-        <v>0.99935098221809</v>
+        <v>0.9993509822180785</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2479420052663</v>
+        <v>326.2479420010815</v>
       </c>
       <c r="R5" t="n">
-        <v>1.678923772464369e-05</v>
+        <v>1.6789237724298e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02370447418924417</v>
+        <v>0.02370447418871608</v>
       </c>
       <c r="T5" t="n">
-        <v>1005.372589020761</v>
+        <v>1005.372589020453</v>
       </c>
       <c r="U5" t="n">
-        <v>716.6788816640699</v>
+        <v>716.678881663861</v>
       </c>
       <c r="V5" t="n">
-        <v>1.402821563105596</v>
+        <v>1.402821563105575</v>
       </c>
       <c r="W5" t="n">
-        <v>134545.0257170011</v>
+        <v>134545.0257156576</v>
       </c>
       <c r="X5" t="n">
-        <v>295.5919892936089</v>
+        <v>295.5919892934064</v>
       </c>
       <c r="Y5" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="Z5" t="n">
-        <v>3790.191971968211</v>
+        <v>3790.191971970398</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.586432855315145</v>
+        <v>1.586432855300387</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9995328227633427</v>
+        <v>0.9995328227633447</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.801006076828</v>
+        <v>344.8010060767086</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.832906474331605e-05</v>
+        <v>1.832906474330604e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02606692894987936</v>
+        <v>0.02606692894986382</v>
       </c>
       <c r="AF5" t="n">
-        <v>1006.764857018939</v>
+        <v>1006.764857018911</v>
       </c>
       <c r="AG5" t="n">
-        <v>717.8542372228804</v>
+        <v>717.8542372228683</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.402464183973824</v>
+        <v>1.402464183973809</v>
       </c>
       <c r="AI5" t="n">
-        <v>100806.445696644</v>
+        <v>100806.4456893317</v>
       </c>
       <c r="AJ5" t="n">
-        <v>272.1529606208101</v>
+        <v>272.1529606157506</v>
       </c>
       <c r="AK5" t="n">
-        <v>398285.8908095217</v>
+        <v>398285.8908044537</v>
       </c>
       <c r="AL5" t="n">
-        <v>3790.191971959053</v>
+        <v>3790.19197196124</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.291173762914799</v>
+        <v>1.291173762845172</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.9993884286165948</v>
+        <v>0.9993884286165727</v>
       </c>
       <c r="AO5" t="n">
-        <v>330.8352149489567</v>
+        <v>330.8352149458774</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.716834687986882e-05</v>
+        <v>1.71683468796139e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.02428394542225769</v>
+        <v>0.02428394542186748</v>
       </c>
       <c r="AR5" t="n">
-        <v>1005.659300511087</v>
+        <v>1005.659300510868</v>
       </c>
       <c r="AS5" t="n">
-        <v>716.9135710624715</v>
+        <v>716.9135710623004</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.402762259083326</v>
+        <v>1.402762259083355</v>
       </c>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
@@ -1415,19 +1415,19 @@
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="n">
-        <v>0.7632095175178898</v>
+        <v>0.7632095176112661</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.3754243120694272</v>
+        <v>0.3754243121198503</v>
       </c>
       <c r="BE5" t="n">
-        <v>228990.8842265074</v>
+        <v>228990.8842371808</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.768336761243912</v>
+        <v>2.768336760987923</v>
       </c>
       <c r="BG5" t="n">
-        <v>384623.3168444016</v>
+        <v>384623.316839434</v>
       </c>
       <c r="BH5" t="inlineStr"/>
     </row>
@@ -1439,136 +1439,136 @@
         <v>165.3032</v>
       </c>
       <c r="C6" t="n">
-        <v>156.5121001947095</v>
+        <v>156.5121002667381</v>
       </c>
       <c r="D6" t="n">
-        <v>133.526797234837</v>
+        <v>133.5267972744573</v>
       </c>
       <c r="E6" t="n">
-        <v>-81.64944535981564</v>
+        <v>-81.64944543309187</v>
       </c>
       <c r="F6" t="n">
-        <v>-31.44510155485408</v>
+        <v>-31.44510157017292</v>
       </c>
       <c r="G6" t="n">
-        <v>280.7401193809039</v>
+        <v>280.7401194642056</v>
       </c>
       <c r="H6" t="n">
-        <v>133.526797234837</v>
+        <v>133.5267972744573</v>
       </c>
       <c r="I6" t="n">
-        <v>-246.9526453598156</v>
+        <v>-246.9526454330919</v>
       </c>
       <c r="J6" t="n">
         <v>-61.6</v>
       </c>
       <c r="K6" t="n">
-        <v>54903.09145928457</v>
+        <v>54903.09143236458</v>
       </c>
       <c r="L6" t="n">
-        <v>232.794457114224</v>
+        <v>232.7944570858933</v>
       </c>
       <c r="M6" t="n">
-        <v>358878.3834944194</v>
+        <v>358878.3834660655</v>
       </c>
       <c r="N6" t="n">
-        <v>3808.092983544944</v>
+        <v>3808.092983563791</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8222044362968361</v>
+        <v>0.8222044359937716</v>
       </c>
       <c r="P6" t="n">
-        <v>0.999282122820199</v>
+        <v>0.9992821228201791</v>
       </c>
       <c r="Q6" t="n">
-        <v>305.9504876240981</v>
+        <v>305.9504876054626</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5125182786884e-05</v>
+        <v>1.512518278536751e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02117701167117706</v>
+        <v>0.02117701166888606</v>
       </c>
       <c r="T6" t="n">
-        <v>1004.349179187646</v>
+        <v>1004.349179186923</v>
       </c>
       <c r="U6" t="n">
-        <v>715.9587909773721</v>
+        <v>715.958790976915</v>
       </c>
       <c r="V6" t="n">
-        <v>1.402803054930837</v>
+        <v>1.402803054930723</v>
       </c>
       <c r="W6" t="n">
-        <v>65649.59875729639</v>
+        <v>65649.59873702961</v>
       </c>
       <c r="X6" t="n">
-        <v>245.0255535002464</v>
+        <v>245.0255534831769</v>
       </c>
       <c r="Y6" t="n">
-        <v>371126.4022482992</v>
+        <v>371126.4022312188</v>
       </c>
       <c r="Z6" t="n">
-        <v>3808.092983543383</v>
+        <v>3808.092983562228</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9340320182088375</v>
+        <v>0.9340320179855679</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9993156830273439</v>
+        <v>0.999315683027335</v>
       </c>
       <c r="AC6" t="n">
-        <v>313.8939701222755</v>
+        <v>313.8939701113302</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.577325957557189e-05</v>
+        <v>1.577325957467552e-05</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02215786291234699</v>
+        <v>0.02215786291098688</v>
       </c>
       <c r="AF6" t="n">
-        <v>1004.644390142623</v>
+        <v>1004.644390142058</v>
       </c>
       <c r="AG6" t="n">
-        <v>716.1766046739291</v>
+        <v>716.1766046735659</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.402788618877088</v>
+        <v>1.40278861887701</v>
       </c>
       <c r="AI6" t="n">
-        <v>94708.43841276309</v>
+        <v>94708.43840052254</v>
       </c>
       <c r="AJ6" t="n">
-        <v>272.1362253063672</v>
+        <v>272.1362253013992</v>
       </c>
       <c r="AK6" t="n">
-        <v>398285.8908094154</v>
+        <v>398285.8908044535</v>
       </c>
       <c r="AL6" t="n">
-        <v>3808.092983534817</v>
+        <v>3808.092983553662</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.213097949751482</v>
+        <v>1.213097949616826</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9994250268066911</v>
+        <v>0.9994250268067039</v>
       </c>
       <c r="AO6" t="n">
-        <v>330.8215128053122</v>
+        <v>330.8215128022864</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.716658649370226e-05</v>
+        <v>1.716658649345117e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.02428053037456163</v>
+        <v>0.02428053037417665</v>
       </c>
       <c r="AR6" t="n">
-        <v>1005.537320540416</v>
+        <v>1005.537320540094</v>
       </c>
       <c r="AS6" t="n">
-        <v>716.8941331992555</v>
+        <v>716.8941331990709</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.402630142965522</v>
+        <v>1.402630142965434</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
@@ -1576,40 +1576,40 @@
         </is>
       </c>
       <c r="AV6" t="n">
-        <v>-5.282377313342579e-11</v>
+        <v>-8.689077235501941e-12</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.1531956823064618</v>
+        <v>0.1531956823296403</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.02617878492446442</v>
+        <v>0.02617878492607613</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.03880479081652338</v>
+        <v>0.03880479082305818</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.07404633656802424</v>
+        <v>0.07404633658402157</v>
       </c>
       <c r="BA6" t="n">
         <v>0.01412344944227462</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.232055517511378e-05</v>
+        <v>4.232055420981269e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.5115602246955918</v>
+        <v>0.5115602249621766</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.9175998429060567</v>
+        <v>0.9175998432342198</v>
       </c>
       <c r="BE6" t="n">
-        <v>397702.2752512385</v>
+        <v>397702.2752625271</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.768336761241781</v>
+        <v>2.768336761042798</v>
       </c>
       <c r="BG6" t="n">
-        <v>384623.3168444016</v>
+        <v>384623.316839434</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -1623,136 +1623,136 @@
         <v>165.3032</v>
       </c>
       <c r="C7" t="n">
-        <v>155.5079887317965</v>
+        <v>155.5079887150635</v>
       </c>
       <c r="D7" t="n">
-        <v>132.9980197655042</v>
+        <v>132.9980197562755</v>
       </c>
       <c r="E7" t="n">
-        <v>-80.58697970431152</v>
+        <v>-80.58697968725269</v>
       </c>
       <c r="F7" t="n">
-        <v>-31.21276869115288</v>
+        <v>-31.21276868753953</v>
       </c>
       <c r="G7" t="n">
-        <v>279.5540265075144</v>
+        <v>279.5540264881192</v>
       </c>
       <c r="H7" t="n">
-        <v>132.9980197655042</v>
+        <v>132.9980197562755</v>
       </c>
       <c r="I7" t="n">
-        <v>-245.8901797043115</v>
+        <v>-245.8901796872527</v>
       </c>
       <c r="J7" t="n">
-        <v>-61.59176165148565</v>
+        <v>-61.591761651486</v>
       </c>
       <c r="K7" t="n">
-        <v>55199.99999797541</v>
+        <v>55199.99999848313</v>
       </c>
       <c r="L7" t="n">
-        <v>233.1263936511837</v>
+        <v>233.1263936517449</v>
       </c>
       <c r="M7" t="n">
-        <v>359210.6639412396</v>
+        <v>359210.6639418014</v>
       </c>
       <c r="N7" t="n">
-        <v>3807.972292597482</v>
+        <v>3807.972292597255</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8254733810365025</v>
+        <v>0.8254733810421072</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9992826085905295</v>
+        <v>0.9992826085905303</v>
       </c>
       <c r="Q7" t="n">
-        <v>306.1687642544922</v>
+        <v>306.1687642548611</v>
       </c>
       <c r="R7" t="n">
-        <v>1.514294289845718e-05</v>
+        <v>1.51429428984872e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02120384064576166</v>
+        <v>0.02120384064580701</v>
       </c>
       <c r="T7" t="n">
-        <v>1004.357108067568</v>
+        <v>1004.357108067581</v>
       </c>
       <c r="U7" t="n">
-        <v>715.9640712139736</v>
+        <v>715.9640712139828</v>
       </c>
       <c r="V7" t="n">
-        <v>1.40280378366557</v>
+        <v>1.402803783665571</v>
       </c>
       <c r="W7" t="n">
-        <v>65841.48452958073</v>
+        <v>65841.48452762267</v>
       </c>
       <c r="X7" t="n">
-        <v>245.2010145528059</v>
+        <v>245.2010145506616</v>
       </c>
       <c r="Y7" t="n">
-        <v>371302.0312208436</v>
+        <v>371302.031218696</v>
       </c>
       <c r="Z7" t="n">
-        <v>3807.972292595994</v>
+        <v>3807.972292595768</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9360915032225701</v>
+        <v>0.9360915032029248</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.9993159478352558</v>
+        <v>0.9993159478352485</v>
       </c>
       <c r="AC7" t="n">
-        <v>314.0064602349452</v>
+        <v>314.0064602335707</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.578246965335832e-05</v>
+        <v>1.578246965324584e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02217183582018869</v>
+        <v>0.0221718358200181</v>
       </c>
       <c r="AF7" t="n">
-        <v>1004.649776854043</v>
+        <v>1004.649776853987</v>
       </c>
       <c r="AG7" t="n">
-        <v>716.1802757157903</v>
+        <v>716.1802757157469</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.402788949821244</v>
+        <v>1.402788949821251</v>
       </c>
       <c r="AI7" t="n">
-        <v>94748.29024836145</v>
+        <v>94748.29024252984</v>
       </c>
       <c r="AJ7" t="n">
-        <v>272.1363346931518</v>
+        <v>272.1363346882953</v>
       </c>
       <c r="AK7" t="n">
-        <v>398285.8908094213</v>
+        <v>398285.890804554</v>
       </c>
       <c r="AL7" t="n">
-        <v>3807.972292587395</v>
+        <v>3807.972292587166</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.213608205290476</v>
+        <v>1.213608205237468</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.9994247874640594</v>
+        <v>0.9994247874640348</v>
       </c>
       <c r="AO7" t="n">
-        <v>330.8216023088865</v>
+        <v>330.8216023059321</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.716659799668972e-05</v>
+        <v>1.716659799644519e-05</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.02428055268821851</v>
+        <v>0.02428055268784431</v>
       </c>
       <c r="AR7" t="n">
-        <v>1005.538117763999</v>
+        <v>1005.538117763807</v>
       </c>
       <c r="AS7" t="n">
-        <v>716.8942602498674</v>
+        <v>716.8942602497057</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.402631006438143</v>
+        <v>1.402631006438191</v>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
@@ -1760,40 +1760,40 @@
         </is>
       </c>
       <c r="AV7" t="n">
-        <v>5.024231031214299e-12</v>
+        <v>-2.961053624517263e-11</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1531837510478655</v>
+        <v>0.1531837510696146</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02617938287007558</v>
+        <v>0.02617938287162179</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.03879929816195635</v>
+        <v>0.03879929816849332</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.07403986482404681</v>
+        <v>0.07403986483868703</v>
       </c>
       <c r="BA7" t="n">
         <v>0.01412301124271309</v>
       </c>
       <c r="BB7" t="n">
-        <v>4.219394907366258e-05</v>
+        <v>4.219394809940043e-05</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.5079159172571107</v>
+        <v>0.5079159172018458</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.9130716753167699</v>
+        <v>0.9130716752523218</v>
       </c>
       <c r="BE7" t="n">
-        <v>397130.2340835602</v>
+        <v>397130.2340579169</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.768336761140898</v>
+        <v>2.7683367609676</v>
       </c>
       <c r="BG7" t="n">
-        <v>384623.3168444016</v>
+        <v>384623.316839434</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08016899694472626</v>
+        <v>0.08016899694830731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01652427982057137</v>
+        <v>0.01652427982340004</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04887803076857315</v>
+        <v>0.04887803076932553</v>
       </c>
       <c r="F2" t="n">
         <v>0.01476668635558176</v>
@@ -1943,22 +1943,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1918.402976531943</v>
+        <v>1918.402976914193</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9704858630913966</v>
+        <v>0.9704858621421363</v>
       </c>
       <c r="J2" t="n">
-        <v>2.838801746307409</v>
+        <v>2.838801746299378</v>
       </c>
       <c r="K2" t="n">
-        <v>1.019662552525992</v>
+        <v>1.019662553362024</v>
       </c>
       <c r="L2" t="n">
-        <v>306.8526588215893</v>
+        <v>306.8526585691294</v>
       </c>
       <c r="M2" t="n">
-        <v>72715.18831427992</v>
+        <v>72715.18839648698</v>
       </c>
       <c r="N2" t="n">
         <v>65</v>
@@ -1968,19 +1968,19 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>0.005537884102913641</v>
+        <v>0.005537884106860491</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0163807967738497</v>
+        <v>0.01638079678297233</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004948850933853308</v>
+        <v>0.004948850936533197</v>
       </c>
     </row>
     <row r="3">
@@ -1988,62 +1988,62 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1531837510478655</v>
+        <v>0.1531837510696146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02617938287007558</v>
+        <v>0.02617938287162179</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03879929816195635</v>
+        <v>0.03879929816849332</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07403986482404681</v>
+        <v>0.07403986483868703</v>
       </c>
       <c r="F3" t="n">
         <v>0.01412301124271309</v>
       </c>
       <c r="G3" t="n">
-        <v>4.219394907366258e-05</v>
+        <v>4.219394809940043e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>4108.587326458481</v>
+        <v>4108.587324331049</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9466215081464554</v>
+        <v>0.9466215076984393</v>
       </c>
       <c r="J3" t="n">
-        <v>2.769128371075503</v>
+        <v>2.769128370884124</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8009740376183091</v>
+        <v>0.8009740378914511</v>
       </c>
       <c r="L3" t="n">
-        <v>288.2637460331223</v>
+        <v>288.2637459148984</v>
       </c>
       <c r="M3" t="n">
-        <v>52986.27690706024</v>
+        <v>52986.27693181729</v>
       </c>
       <c r="N3" t="n">
         <v>-61.6</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.5345074880089804</v>
+        <v>-0.534507475794225</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>0.00983393105116963</v>
+        <v>0.009833931049067251</v>
       </c>
       <c r="R3" t="n">
-        <v>1.584958621928595e-05</v>
+        <v>1.584958584899299e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02781207369673546</v>
+        <v>0.02781207369464634</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01457443152315797</v>
+        <v>0.01457443152163686</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005305118133800114</v>
+        <v>0.005305118132352613</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2068,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>reaction</t>
         </is>
       </c>
     </row>
@@ -2076,8 +2076,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.5328821562108254</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[0.53288216]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2196,40 +2198,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.500000000050065</v>
+        <v>2.095943021148112</v>
       </c>
       <c r="C2" t="n">
-        <v>2.09594302108578</v>
+        <v>2.50000000002707</v>
       </c>
       <c r="D2" t="n">
-        <v>2.768336761140898</v>
+        <v>2.7683367609676</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8974470785506539</v>
+        <v>0.8974470785473183</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7386679166902492</v>
+        <v>0.7386679167216738</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1769231475095195</v>
+        <v>0.1769231474714449</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08440893580023126</v>
+        <v>0.08440893580688139</v>
       </c>
       <c r="I2" t="n">
-        <v>139752.2833444961</v>
+        <v>139752.283341693</v>
       </c>
       <c r="J2" t="n">
-        <v>85.89568736600867</v>
+        <v>85.89568736428579</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-31.21276869115288</v>
+        <v>-31.21276868753953</v>
       </c>
       <c r="M2" t="n">
-        <v>155.5079887317965</v>
+        <v>155.5079887150635</v>
       </c>
       <c r="N2" t="n">
         <v>369.7093005183567</v>
@@ -2244,7 +2246,7 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>371302.0312208436</v>
+        <v>371302.031218696</v>
       </c>
       <c r="S2" t="n">
         <v>353441.9476436031</v>
@@ -2261,7 +2263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2487,264 +2489,213 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stator</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.018294</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02616</v>
-      </c>
-      <c r="E2" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.007731</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.00254</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.00505</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.01912286864605749</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.758627359861796</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.6993119266055047</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.1930428134556575</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.06467468632777131</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.0970948012232416</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rotor</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01524</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02606</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-31.05</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.007249</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00162</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-61.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.00447</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.02232605854162319</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.08185000000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.08185000000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.12135</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.12135</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.118715</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.12165</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.12165</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.6986814997939843</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.6744952616398847</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.6744952616398847</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.02521567927477312</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.02521567927477312</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.036565</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.03949999999999999</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.257102584362989</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1.637772288907632</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.5848042977743668</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.171527244819647</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.06897503103876397</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.00820456720907972</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.06216423637759017</v>
+          <t>['stator' 'rotor']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.018294 0.01524 ]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.02616 0.02606]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[ 43.03 -31.05]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0.007731 0.007249]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[0.00254 0.00162]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[50. 50.]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[ 0.  29.6]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[ 65.  -61.6]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[0.0005 0.0005]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[0.00505 0.00447]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[0.     0.0003]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1. 1.]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[0.01912287 0.02232606]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.084785]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.08185 ]</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.08185 ]</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.118415]</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12135 ]</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12135 ]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.118715]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12165 ]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12165 ]</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.6986815 ]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.67449526]</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.67449526]</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02146844]</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02521568]</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02521568]</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>[0.03363  0.036565]</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>[0.03363 0.03363]</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>[0.03363 0.0395 ]</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>[0.         0.25710258]</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>[1.75862736 1.63777229]</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>[0.69931193 0.5848043 ]</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>[0.19304281 0.17152724]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>[0.06467469 0.06897503]</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>[0.         0.00820457]</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>[0.0970948  0.06216424]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +2709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2804,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03516100958600455</v>
+        <v>0.03516100955980501</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2821,7 +2772,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03516100958600455</v>
+        <v>0.03516100955980501</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2838,7 +2789,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03516100958600455</v>
+        <v>0.03516100955980501</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2855,10 +2806,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002318521939824209</v>
+        <v>0.002318651164835853</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05853889632668639</v>
+        <v>0.05853803157918566</v>
       </c>
     </row>
     <row r="6">
@@ -2872,10 +2823,10 @@
         <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>9.846225005142864e-05</v>
+        <v>9.846650563362586e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002814421409345876</v>
+        <v>0.00281606191004549</v>
       </c>
     </row>
     <row r="7">
@@ -2889,10 +2840,10 @@
         <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>3.77845158265637e-05</v>
+        <v>3.771347639566286e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001051647075456647</v>
+        <v>0.001050904277620273</v>
       </c>
     </row>
     <row r="8">
@@ -2906,10 +2857,10 @@
         <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>3.521171311595751e-06</v>
+        <v>3.484136118213715e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001310321553797953</v>
+        <v>0.001311431194577406</v>
       </c>
     </row>
     <row r="9">
@@ -2923,10 +2874,10 @@
         <v>42</v>
       </c>
       <c r="D9" t="n">
-        <v>1.378265024780462e-07</v>
+        <v>1.41456115285375e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001025177935442355</v>
+        <v>0.000101072158710138</v>
       </c>
     </row>
     <row r="10">
@@ -2940,10 +2891,10 @@
         <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v>1.253023636502437e-08</v>
+        <v>1.278127811550046e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>2.182614137592469e-06</v>
+        <v>2.200724984513032e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2957,10 +2908,10 @@
         <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>2.636365125039261e-09</v>
+        <v>2.725925570949963e-09</v>
       </c>
       <c r="E11" t="n">
-        <v>2.828620238928593e-07</v>
+        <v>2.927682534020584e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2974,10 +2925,10 @@
         <v>45</v>
       </c>
       <c r="D12" t="n">
-        <v>9.839231081510247e-10</v>
+        <v>2.36248040939852e-09</v>
       </c>
       <c r="E12" t="n">
-        <v>9.241772585797778e-09</v>
+        <v>1.923445426021522e-08</v>
       </c>
     </row>
     <row r="13">
@@ -2991,10 +2942,10 @@
         <v>46</v>
       </c>
       <c r="D13" t="n">
-        <v>2.050183782152832e-09</v>
+        <v>2.291628795071849e-09</v>
       </c>
       <c r="E13" t="n">
-        <v>5.365700348809102e-09</v>
+        <v>4.301864916828832e-09</v>
       </c>
     </row>
     <row r="14">
@@ -3008,27 +2959,61 @@
         <v>47</v>
       </c>
       <c r="D14" t="n">
-        <v>2.836037893952004e-09</v>
+        <v>7.610202423383572e-10</v>
       </c>
       <c r="E14" t="n">
-        <v>3.878807005038605e-09</v>
+        <v>1.297238444843403e-09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>8.461269402857029e-09</v>
+        <v>1.047353438408261e-09</v>
       </c>
       <c r="E15" t="n">
-        <v>1.189356889864675e-09</v>
+        <v>2.931230355217154e-09</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>49</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.51705180646518e-09</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.301861927240838e-09</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.610202423383572e-10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.742621039664017e-09</v>
       </c>
     </row>
   </sheetData>

--- a/tests/regression_data/kofskey1972a_moustapha_2.xlsx
+++ b/tests/regression_data/kofskey1972a_moustapha_2.xlsx
@@ -2263,7 +2263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,20 +2464,25 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>solidity</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>thickness_max_chord_ratio</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>thickness_te_opening_ratio</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>tip_clearance_height_ratio</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>diameter_le_chord_ratio</t>
         </is>
@@ -2679,20 +2684,25 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>[1.42997704 1.70997375]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>[0.19304281 0.17152724]</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>[0.06467469 0.06897503]</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>[0.         0.00820457]</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>[0.0970948  0.06216424]</t>
         </is>
